--- a/data/income_statement/3digits/total/479_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/479_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>479-Retail trade not in stores, stalls or markets</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>479-Retail trade not in stores, stalls or markets</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>854917.2618700002</v>
@@ -959,34 +865,39 @@
         <v>1900871.06117</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2753818.60325</v>
+        <v>2753847.59847</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4050465.82203</v>
+        <v>4050943.62448</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5146884.76549</v>
+        <v>5151046.070769999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5690018.63156</v>
+        <v>6040383.084439999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6410014.72984</v>
+        <v>6789409.747</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9002413.0877</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11985561.63122</v>
+        <v>12080276.42893</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>17737722.64567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18038914.05418</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>33125294.589</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>825615.4734</v>
@@ -998,34 +909,39 @@
         <v>1815066.16069</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2634431.92709</v>
+        <v>2634460.92231</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>3921944.19386</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4948445.75622</v>
+        <v>4952597.01282</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5404135.50151</v>
+        <v>5754388.05954</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6073460.875510001</v>
+        <v>6424053.48067</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8354369.531619999</v>
+        <v>8354369.53162</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10695446.51313</v>
+        <v>10777031.93241</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15396857.04141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15633443.48677</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>29854019.131</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>14356.01865</v>
@@ -1040,7 +956,7 @@
         <v>38439.53216</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>30332.37807</v>
+        <v>30810.15095</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>54164.51011</v>
@@ -1049,22 +965,27 @@
         <v>107971.53953</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>178852.15304</v>
+        <v>181373.99562</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>377536.1966999999</v>
+        <v>377536.1967</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>885831.7966599999</v>
+        <v>898892.36164</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1557615.07142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1613870.45715</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1946740.029</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14945.76982</v>
@@ -1073,37 +994,42 @@
         <v>27456.73553</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55093.47141000001</v>
+        <v>55093.47141</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>80947.144</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>98189.2501</v>
+        <v>98189.27967</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>144274.49916</v>
+        <v>144284.54784</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>177911.59052</v>
+        <v>178023.48537</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>157701.70129</v>
+        <v>183982.27071</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>270507.35938</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>404283.32143</v>
+        <v>404352.13488</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>783250.5328399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>791600.11026</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1324535.429</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>60409.04793000001</v>
@@ -1121,28 +1047,33 @@
         <v>508779.66451</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>586349.75532</v>
+        <v>586360.7304999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>619575.29505</v>
+        <v>641268.86653</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>625882.6485199999</v>
+        <v>705131.66915</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1141126.2822</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1683882.53726</v>
+        <v>1683907.62864</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2944089.976189999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2973918.25436</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4443161.515</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>18149.30315</v>
@@ -1151,37 +1082,42 @@
         <v>33784.77071</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>68609.88557000001</v>
+        <v>68609.88557</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>179982.68112</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>325186.19219</v>
+        <v>325186.1921899999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>419619.88907</v>
+        <v>419630.86425</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>393754.01974</v>
+        <v>415447.59122</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>386174.1766599999</v>
+        <v>444609.95934</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>672791.8618000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>947100.0214399999</v>
+        <v>947124.9667699999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1217929.47135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1221870.69297</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1371591.931</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>42217.39218</v>
@@ -1190,7 +1126,7 @@
         <v>68814.55128999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>98920.49051</v>
+        <v>98920.49050999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>112631.50463</v>
@@ -1205,22 +1141,27 @@
         <v>217146.32379</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>233390.49547</v>
+        <v>254203.73342</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>458647.80979</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>721875.7323499999</v>
+        <v>721875.8784</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1714369.64614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1736753.89409</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3040588.818</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>42.3526</v>
@@ -1247,19 +1188,24 @@
         <v>6317.97639</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9686.61061</v>
+        <v>9686.610610000002</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>14906.78347</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11790.8587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15293.6673</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>30980.766</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>794508.21394</v>
@@ -1271,73 +1217,83 @@
         <v>1733004.9497</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2459932.73582</v>
+        <v>2459961.73104</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3541686.15752</v>
+        <v>3542163.95997</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4560535.01017</v>
+        <v>4564685.340270001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5070443.33651</v>
+        <v>5399114.21791</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5784132.08132</v>
+        <v>6084278.07785</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>7861286.8055</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10301679.09396</v>
+        <v>10396368.80029</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14793632.66948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15064995.79982</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>28682133.074</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>597228.89023</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>857649.27923</v>
+        <v>857649.2792299999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1280512.8714</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1848460.07968</v>
+        <v>1848477.37509</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2750914.98176</v>
+        <v>2751005.55475</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3529703.274290001</v>
+        <v>3532587.4985</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3803653.87368</v>
+        <v>4107389.48687</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4145381.03946</v>
+        <v>4368799.399769999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5499304.369539999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7165228.64406</v>
+        <v>7255674.455860001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9635932.43496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9851878.90722</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18165352.302</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4179.43635</v>
@@ -1355,31 +1311,36 @@
         <v>22311.1008</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>42644.77252000001</v>
+        <v>42644.77252</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>65903.69022</v>
+        <v>65924.91892</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>39596.46085</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>36022.51448</v>
+        <v>36022.51448000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>151276.9781</v>
+        <v>151492.93815</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>90398.27662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90863.14998</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>407687.873</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>564995.5379000001</v>
+        <v>564995.5379</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>799166.38987</v>
@@ -1388,73 +1349,83 @@
         <v>1168661.73689</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1291067.44702</v>
+        <v>1291068.25006</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2517694.45741</v>
+        <v>2517696.8835</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3271793.71386</v>
+        <v>3274671.23807</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3556111.13014</v>
+        <v>3857775.67435</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3878509.26375</v>
+        <v>4101910.74968</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5215864.41321</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6749260.2009</v>
+        <v>6838047.95481</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9079974.877839999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9286312.41416</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>17125749.485</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>27671.69762</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>48717.12306000001</v>
+        <v>48717.12306</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>98465.78451</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>114997.74347</v>
+        <v>115014.23584</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>209620.75167</v>
+        <v>209708.89857</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>214260.43349</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>179129.04991</v>
+        <v>181178.89019</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>223995.02654</v>
+        <v>224011.90092</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>241714.84529</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>262862.21576</v>
+        <v>264117.77864</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>461846.74827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>470916.70951</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>623511.724</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>382.21836</v>
@@ -1472,7 +1443,7 @@
         <v>1288.67188</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1004.35442</v>
+        <v>1011.05442</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>2510.00341</v>
@@ -1484,16 +1455,21 @@
         <v>5702.596560000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1829.2493</v>
+        <v>2015.78426</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3712.53223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3786.63357</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8403.219999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>197279.32371</v>
@@ -1505,34 +1481,39 @@
         <v>452492.0783</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>611472.65614</v>
+        <v>611484.35595</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>790771.17576</v>
+        <v>791158.4052200001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1030831.73588</v>
+        <v>1032097.84177</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1266789.46283</v>
+        <v>1291724.73104</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1638751.04186</v>
+        <v>1715478.67808</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2361982.43596</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3136450.4499</v>
+        <v>3140694.34443</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5157700.23452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5213116.892600001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10516780.772</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>169232.31186</v>
@@ -1544,34 +1525,39 @@
         <v>487294.57964</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>792925.63026</v>
+        <v>792961.7737500001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>999200.9272499999</v>
+        <v>999388.424</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1222034.48062</v>
+        <v>1226037.84919</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1385690.00115</v>
+        <v>1435316.25415</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1514353.11999</v>
+        <v>1621166.61317</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2084117.31702</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3350166.05679</v>
+        <v>3360661.07086</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5400719.52666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5466938.37588</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11364242.031</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>937.47927</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>111501.56572</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>268230.484</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>105710.66944</v>
@@ -1628,28 +1619,33 @@
         <v>664159.0472499999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>833461.42711</v>
+        <v>834125.40252</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>938011.6643699999</v>
+        <v>973642.1487799999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1017588.32323</v>
+        <v>1089374.67753</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1462391.75535</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2465767.18922</v>
+        <v>2468131.82711</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4176999.3553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4194323.47978</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9360938.914000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>62584.16315000001</v>
@@ -1661,34 +1657,39 @@
         <v>166742.97587</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>296702.61746</v>
+        <v>296738.76095</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>311687.17836</v>
+        <v>311874.67511</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>366237.04351</v>
+        <v>369576.43667</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>417219.44298</v>
+        <v>431215.21157</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>452008.95073</v>
+        <v>487036.08961</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>572365.6236899999</v>
+        <v>572365.62369</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>800875.7736499999</v>
+        <v>809006.14983</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1112218.60564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1161113.33038</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1735072.633</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>28047.01185</v>
@@ -1700,34 +1701,39 @@
         <v>-34802.50134</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-181452.97412</v>
+        <v>-181477.4178</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-208429.75149</v>
+        <v>-208230.01878</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-191202.74474</v>
+        <v>-193940.00742</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-118900.53832</v>
+        <v>-143591.52311</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>124397.92187</v>
+        <v>94312.06491</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>277865.11894</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-213715.60689</v>
+        <v>-219966.72643</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-243019.29214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-253821.48328</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-847461.259</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>14800.00072</v>
@@ -1736,37 +1742,42 @@
         <v>18375.46357</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>26578.01462000001</v>
+        <v>26578.01462</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>35945.05362999999</v>
+        <v>35945.05363</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>63532.2598</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>91074.56739999999</v>
+        <v>91232.59596999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>141614.18294</v>
+        <v>143672.73836</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>139834.31612</v>
+        <v>145050.71161</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>264810.63604</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>775199.8343999999</v>
+        <v>778036.36158</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>667393.15278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>688167.69317</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1480315.072</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>73.92547</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>20640.84307</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>16454.239</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3174.14401</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>8510.144689999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9139.406000000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2432.58909</v>
@@ -1862,37 +1883,42 @@
         <v>13768.90788</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16198.44127</v>
+        <v>16318.1803</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19022.3622</v>
+        <v>19126.9139</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>24596.94518</v>
+        <v>25818.27468</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>44196.28649</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>87126.07995</v>
+        <v>88011.57106999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>165828.40702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>166271.73734</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>285534.925</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>818.00842</v>
+        <v>818.0084199999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>856.98632</v>
+        <v>856.9863200000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>982.5232199999999</v>
+        <v>982.52322</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>1638.35968</v>
@@ -1904,7 +1930,7 @@
         <v>5747.69826</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5663.221010000001</v>
+        <v>5771.90866</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>6956.022190000001</v>
@@ -1916,13 +1942,18 @@
         <v>38702.08521</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>70291.2729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>70296.33919000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>20468.377</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>306.34075</v>
@@ -1949,7 +1980,7 @@
         <v>5327.25934</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5166.858699999999</v>
+        <v>5166.8587</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>1016.8117</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>424.28911</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>196.367</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>114.78748</v>
@@ -1991,19 +2027,24 @@
         <v>12060.32987</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>9325.515730000001</v>
+        <v>9325.515729999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5577.127249999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5577.12725</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13949.1</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5744.53506</v>
+        <v>5744.535059999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>9074.954009999999</v>
@@ -2018,28 +2059,33 @@
         <v>28912.16747</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>37689.89243</v>
+        <v>37728.18193</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>76219.20245</v>
+        <v>76615.94756</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>82086.22689000001</v>
+        <v>85520.65884999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>159255.98693</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>602882.26372</v>
+        <v>604599.45571</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>344798.17975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>359278.32062</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>881682.27</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.94535</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>10</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>12.74586</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2124.72509</v>
@@ -2135,31 +2191,36 @@
         <v>10073.02724</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14268.38438</v>
+        <v>14268.38442</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14134.85121</v>
+        <v>15583.42217</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>14547.29307</v>
+        <v>15107.9271</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>22330.36369</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30405.64723</v>
+        <v>30639.4913</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>51310.14313000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>57156.14604</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>252882.778</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9702.9234</v>
+        <v>9702.923399999998</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>14408.35983</v>
@@ -2174,37 +2235,42 @@
         <v>57198.20849</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>72838.70792</v>
+        <v>72873.91342</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>132190.58764</v>
+        <v>134555.74676</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>104459.48339</v>
+        <v>110292.51069</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>166218.44931</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>669622.77122</v>
+        <v>672700.7989399999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>349282.39358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>365699.0035100001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>902614.53</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>774.4971500000001</v>
+        <v>774.49715</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>348.35839</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>662.98233</v>
+        <v>662.9823299999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>996.97046</v>
@@ -2213,7 +2279,7 @@
         <v>2221.16366</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4898.416720000001</v>
+        <v>4915.98963</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>13672.23522</v>
@@ -2225,16 +2291,21 @@
         <v>7524.38141</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14412.44523</v>
+        <v>14412.83106</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22591.52212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23759.28229</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>48910.245</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2600.36362</v>
@@ -2255,7 +2326,7 @@
         <v>970.86394</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6932.37204</v>
+        <v>7066.4918</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>5839.24078</v>
@@ -2267,13 +2338,18 @@
         <v>3167.82246</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7021.84204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7021.842040000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13269.505</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>13.07457</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1422.80417</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1385.137</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5774.247490000001</v>
@@ -2330,28 +2411,33 @@
         <v>38106.02087000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>49070.96780000001</v>
+        <v>49088.60033</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>78834.87306999999</v>
+        <v>79214.40033</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>75049.74703999999</v>
+        <v>80879.40633000001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>131305.96618</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>621284.3291300001</v>
+        <v>624337.3873299999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>276669.94605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>291744.79632</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>742648.532</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>87.47377</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>2.65031</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>540.74057</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2909.959769999999</v>
+        <v>2909.95977</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>887.6479899999998</v>
+        <v>887.6479899999999</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>2806.17326</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4445.716369999999</v>
+        <v>4445.71637</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17375.90643</v>
+        <v>17375.90649</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32176.25237</v>
+        <v>34027.76447</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13158.11048</v>
+        <v>13161.47849</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>13934.6207</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>28800.04729</v>
+        <v>28824.63098000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41486.15512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>41660.15461</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>96388.761</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>21613.93067</v>
@@ -2483,31 +2584,36 @@
         <v>54406.52028</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>73671.85702</v>
+        <v>73672.00034999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>112746.37371</v>
+        <v>112749.25405</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>133137.12578</v>
+        <v>145571.46844</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>162183.66874</v>
+        <v>164048.88933</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>212530.22347</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>447031.0863</v>
+        <v>447622.06181</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>727536.16894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>729666.5508</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>914051.825</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>21341.97325</v>
@@ -2522,34 +2628,39 @@
         <v>54274.40393</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>72611.30088</v>
+        <v>72611.44420999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>112552.00074</v>
+        <v>112554.88108</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>133076.01188</v>
+        <v>145510.35454</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>162116.57103</v>
+        <v>163981.79162</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>211922.88394</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>438452.05693</v>
+        <v>439043.03244</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>725377.7679700002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>727507.3133500001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>911421.335</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>271.9574200000001</v>
+        <v>271.95742</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>165.33124</v>
@@ -2576,16 +2687,21 @@
         <v>607.3395300000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>8579.02937</v>
+        <v>8579.029369999998</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2158.40097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2159.23745</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2630.49</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>11530.1585</v>
@@ -2594,37 +2710,42 @@
         <v>9208.66934</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-72814.15018</v>
+        <v>-72814.15018000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-217929.5777</v>
+        <v>-217954.02138</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-275767.5572</v>
+        <v>-275567.96782</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-285713.25897</v>
+        <v>-288330.5789199999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-242614.0688</v>
+        <v>-280045.99995</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2410.914140000008</v>
+        <v>-34978.6235</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>163927.0822</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-555169.63001</v>
+        <v>-562253.2256</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-652444.7018799999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-661019.34442</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1183812.542</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4373.760179999999</v>
@@ -2642,28 +2763,33 @@
         <v>19212.28301</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>28997.40688</v>
+        <v>29008.10734</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>52893.50443000001</v>
+        <v>53340.82918000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>41894.51145000001</v>
+        <v>47754.52595</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>26254.39272</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>37863.14445</v>
+        <v>38202.21009</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>44286.73015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>45256.94197</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>203690.17</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>62.74149</v>
@@ -2687,25 +2813,30 @@
         <v>1243.32542</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>571.34698</v>
+        <v>571.3469800000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>143.56414</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>163.36468</v>
+        <v>163.36471</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>65.73644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>66.38</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>116.996</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4311.018690000001</v>
+        <v>4311.01869</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>4146.769240000001</v>
@@ -2720,28 +2851,33 @@
         <v>19004.56504</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>28714.67905</v>
+        <v>28725.37951</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>51650.17901</v>
+        <v>52097.50376</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>41323.16447</v>
+        <v>47183.17897</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>26110.82858</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>37699.77976999999</v>
+        <v>38038.84538000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>44220.99371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>45190.56197</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>203573.174</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3931.15082</v>
@@ -2756,31 +2892,36 @@
         <v>10790.42109</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>23402.85934</v>
+        <v>23403.01066</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>55483.13013</v>
+        <v>55705.80581000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>33857.15369</v>
+        <v>35388.12414</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>58900.99237000001</v>
+        <v>60797.56131</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>43767.53743</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>130408.54</v>
+        <v>132072.98771</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76004.52021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>83616.72990000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>233025.766</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.14778</v>
@@ -2813,13 +2954,18 @@
         <v>13.13483</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>33.07633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>62.20169</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>88.982</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>319.59854</v>
@@ -2843,7 +2989,7 @@
         <v>2526.46518</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1888.12563</v>
+        <v>2084.80275</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2095.39714</v>
@@ -2852,19 +2998,24 @@
         <v>2323.58502</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>981.51588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>983.32096</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6639.12</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3611.4045</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6786.901309999999</v>
+        <v>6786.90131</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>27301.4065</v>
@@ -2873,31 +3024,36 @@
         <v>10275.28843</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>22743.61483</v>
+        <v>22743.76615</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>54838.92513</v>
+        <v>55061.60081</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31328.34271</v>
+        <v>32859.31316</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>57012.86674</v>
+        <v>58712.75855999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>41604.19881</v>
+        <v>41604.19880999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>128071.82015</v>
+        <v>129736.26786</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>74989.928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>82571.20725000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>226297.664</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>11972.76786</v>
@@ -2909,40 +3065,45 @@
         <v>-89931.89619999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-215550.45715</v>
+        <v>-215574.90083</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-279958.13353</v>
+        <v>-279758.69547</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-312198.9822199999</v>
+        <v>-315028.27739</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-223577.71806</v>
+        <v>-262093.29491</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-19417.39506000001</v>
+        <v>-48021.65886</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>146413.93749</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-647715.02556</v>
+        <v>-656124.00322</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-684162.49194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-699379.13235</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1213148.138</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>5520.24051</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6872.725570000001</v>
+        <v>6872.72557</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>11292.65055</v>
@@ -2951,67 +3112,75 @@
         <v>10304.87771</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16528.75469</v>
+        <v>16564.77297</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20153.4069</v>
+        <v>20170.77708</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>25292.75385</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>57352.73802999999</v>
+        <v>57355.48018999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>98933.89418</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>30186.61175</v>
+        <v>30300.72306</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>27342.9851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>28569.49267</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69729.031</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6452.52735</v>
+        <v>6452.527349999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-56.32654000000051</v>
+        <v>-56.32653999999911</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-101224.54675</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-225855.33486</v>
+        <v>-225879.77854</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-296486.88822</v>
+        <v>-296323.4684400001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-332352.38912</v>
+        <v>-335199.05447</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-248870.47191</v>
+        <v>-287386.04876</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-76770.13309</v>
+        <v>-105377.13905</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>47480.04331</v>
+        <v>47480.04331000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-677901.6373099999</v>
+        <v>-686424.7262799999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-711505.4770399999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-727948.62502</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1282877.169</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>866</v>
@@ -3041,31 +3213,34 @@
         <v>1210</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1553</v>
+        <v>1584</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1669</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1915</v>
+        <v>2354</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3265</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>